--- a/044-P_OO/Documentation/CDC-JournalDeTravail.xlsx
+++ b/044-P_OO/Documentation/CDC-JournalDeTravail.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01-projects\044-P_OO\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-GITS\covid19-WorkFromHome-ETML\044-P_OO\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67ABD80-E248-4514-9AA6-EFE852DB7AAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E899B-8DA9-4A89-8B15-7228F330F389}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="8170" windowWidth="14400" windowHeight="14410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="630" windowWidth="24170" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JournalDeBord" sheetId="3" r:id="rId1"/>
     <sheet name="Copie_Taches" sheetId="1" r:id="rId2"/>
     <sheet name="Dicos" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Copie_Taches!$A$3:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dicos!$A$1:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JournalDeBord!$A$2:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JournalDeBord!$A$2:$H$27</definedName>
     <definedName name="BuildPreference">Dicos!$B:$B</definedName>
     <definedName name="BuildStatus">Dicos!$A:$A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Copie_Taches!$A$1:$H$52</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="83">
   <si>
     <t>P_OO - Smart Thésaurus - Check List - CDC</t>
   </si>
@@ -287,6 +286,30 @@
   </si>
   <si>
     <t xml:space="preserve">Maxime, c'est informé un peu sur NoSQL sous demande de Samy pour d'ultérieures prises de décision, et à commencé </t>
+  </si>
+  <si>
+    <t>Rêlaches de février</t>
+  </si>
+  <si>
+    <t>Pont de l'Ascension</t>
+  </si>
+  <si>
+    <t>Samy continue la collaboration avec Johnathan et son équipe au même sujet de la semaine précédente.</t>
+  </si>
+  <si>
+    <t>COVID-19 - Restructuration</t>
+  </si>
+  <si>
+    <t>RESTRUCTURATION COVID -19 :
+-Mise en place du projet sur mon git covid-19
+-Re-briefing au sujet de l'architecture DB basée-granularité (semaine 4) avec Jonathan et Adrian
+-Recuperation de la documentation perdue, donc, ce Journal de travail</t>
+  </si>
+  <si>
+    <t>Cours standards dans le cadre ICT 326</t>
+  </si>
+  <si>
+    <t>https://github.com/Wolftrot/covid19-WorkFromHome-ETML</t>
   </si>
 </sst>
 </file>
@@ -377,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +428,13 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -546,6 +574,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,7 +640,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -661,20 +747,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -684,7 +800,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="101">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1512,6 +1628,126 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1905,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,18 +2162,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
@@ -2089,7 +2325,7 @@
     </row>
     <row r="8" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="20">
         <v>3</v>
@@ -2098,7 +2334,7 @@
         <v>43859</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>58</v>
@@ -2113,143 +2349,159 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18">
-        <v>43859</v>
+        <v>43866</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>78</v>
+      </c>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="18">
-        <v>43887</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="16"/>
+        <v>43873</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="18">
-        <v>43894</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="16"/>
+        <v>43880</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="18">
-        <v>43901</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="16"/>
+        <v>43887</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43894</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43901</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="1:8" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C15" s="18">
         <v>43908</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20">
-        <v>11</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43915</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18">
-        <v>43922</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="35"/>
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="18">
-        <v>43929</v>
-      </c>
-      <c r="D16" s="19" t="s">
+        <v>43915</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="35"/>
@@ -2259,15 +2511,15 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="18">
-        <v>43936</v>
-      </c>
-      <c r="D17" s="19" t="s">
+        <v>43922</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="35"/>
@@ -2277,13 +2529,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="18">
-        <v>43943</v>
+        <v>43929</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>3</v>
@@ -2295,49 +2547,51 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="18">
-        <v>43950</v>
+        <v>43936</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="18">
-        <v>43957</v>
+        <v>43943</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="18">
-        <v>43964</v>
+        <v>43950</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>3</v>
@@ -2349,13 +2603,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="18">
-        <v>43971</v>
+        <v>43957</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>3</v>
@@ -2367,13 +2621,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="18">
-        <v>43978</v>
+        <v>43964</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>3</v>
@@ -2383,24 +2637,143 @@
       <c r="G23" s="31"/>
       <c r="H23" s="16"/>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="21">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20">
+        <v>19</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43971</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="21">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20">
+        <v>20</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43978</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="21">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20">
+        <v>21</v>
+      </c>
+      <c r="C26" s="18">
+        <v>43985</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="21">
+        <v>24</v>
+      </c>
+      <c r="B27" s="20">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18">
+        <v>43992</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <autoFilter ref="A2:H27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="E12:H14"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D23">
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D9 D15:D27">
+    <cfRule type="cellIs" dxfId="100" priority="17" operator="equal">
       <formula>"Waiting"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="18" operator="equal">
       <formula>"OnGoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="19" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B23">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+      <formula>"Waiting"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="13" operator="equal">
+      <formula>"OnGoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="14" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+      <formula>"Waiting"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
+      <formula>"OnGoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="11" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+      <formula>"Waiting"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
+      <formula>"OnGoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="8" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+      <formula>"Waiting"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+      <formula>"OnGoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B27">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2411,8 +2784,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C23">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="C3:C27">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2424,7 +2797,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>BuildStatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -2437,35 +2810,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Dicos!$F$1:$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E9 E15:E17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>Dicos!$G$1:$G$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F9 F21:F27 F15:F18</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Dicos!$C$1:$C$20</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A23</xm:sqref>
+          <xm:sqref>A3:A27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Dicos!$D$1:$D$20</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B23</xm:sqref>
+          <xm:sqref>B3:B27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dicos!$E$1:$E$20</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Dicos!$F$1:$F$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>Dicos!$G$1:$G$49</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F23</xm:sqref>
+          <xm:sqref>C3:C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2480,8 +2853,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2493,58 +2866,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2553,14 +2926,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,14 +2942,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,14 +2958,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2601,14 +2974,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,14 +2990,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -2633,14 +3006,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,14 +3022,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2665,14 +3038,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2681,14 +3054,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,14 +3070,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,14 +3086,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,14 +3102,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2745,14 +3118,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,14 +3134,14 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="3" t="s">
         <v>3</v>
       </c>
@@ -2777,14 +3150,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,14 +3166,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2809,26 +3182,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
@@ -2837,14 +3210,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
@@ -2853,14 +3226,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2869,14 +3242,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2885,14 +3258,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2901,14 +3274,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2917,14 +3290,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,26 +3306,26 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,14 +3334,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2977,14 +3350,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2993,14 +3366,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="3" t="s">
         <v>3</v>
       </c>
@@ -3009,14 +3382,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3025,14 +3398,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="3" t="s">
         <v>3</v>
       </c>
@@ -3041,14 +3414,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,14 +3430,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="3" t="s">
         <v>3</v>
       </c>
@@ -3073,14 +3446,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="3" t="s">
         <v>3</v>
       </c>
@@ -3089,14 +3462,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="3" t="s">
         <v>3</v>
       </c>
@@ -3105,14 +3478,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,14 +3494,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,14 +3510,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3153,14 +3526,14 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,26 +3542,26 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,14 +3570,14 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,26 +3586,26 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3241,14 +3614,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="3" t="s">
         <v>3</v>
       </c>
@@ -3257,14 +3630,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
       <c r="G51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,14 +3646,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3289,12 +3662,14 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
+      <c r="A53" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3303,12 +3678,12 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3317,12 +3692,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="3" t="s">
         <v>4</v>
       </c>
@@ -3339,6 +3714,44 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="54">
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A4:H4"/>
@@ -3355,44 +3768,6 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G21 G53:G1048576">
     <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
@@ -3553,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4291,6 +4666,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G50" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="H3:H18">
@@ -4485,16 +4865,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/044-P_OO/Documentation/CDC-JournalDeTravail.xlsx
+++ b/044-P_OO/Documentation/CDC-JournalDeTravail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-GITS\covid19-WorkFromHome-ETML\044-P_OO\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E899B-8DA9-4A89-8B15-7228F330F389}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6212C210-23C9-40D0-9EA7-8B223FA4A75E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="630" windowWidth="24170" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="84">
   <si>
     <t>P_OO - Smart Thésaurus - Check List - CDC</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>https://github.com/Wolftrot/covid19-WorkFromHome-ETML</t>
+  </si>
+  <si>
+    <t>Elaboration MCD, MLD et MPD. Debut des travaux sur le DAL pour le renvoit d'objet formaté vers la vue</t>
   </si>
 </sst>
 </file>
@@ -753,18 +756,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,6 +782,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2144,7 +2147,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2386,12 +2389,12 @@
       <c r="D10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
@@ -2406,10 +2409,10 @@
       <c r="D11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
@@ -2424,12 +2427,12 @@
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
@@ -2444,10 +2447,10 @@
       <c r="D13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
@@ -2462,10 +2465,10 @@
       <c r="D14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
@@ -2491,7 +2494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>13</v>
       </c>
@@ -2502,11 +2505,17 @@
         <v>43915</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2558,12 +2567,12 @@
       <c r="D19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
@@ -2578,10 +2587,10 @@
       <c r="D20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -2866,58 +2875,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,14 +2935,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,14 +2951,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2958,14 +2967,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2974,14 +2983,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2990,14 +2999,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3006,14 +3015,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3022,14 +3031,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3038,14 +3047,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,14 +3063,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -3070,14 +3079,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -3086,14 +3095,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,14 +3111,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,14 +3127,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3134,14 +3143,14 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,14 +3159,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,14 +3175,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3182,26 +3191,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
@@ -3210,14 +3219,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
@@ -3226,14 +3235,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3242,14 +3251,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -3258,14 +3267,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,14 +3283,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="3" t="s">
         <v>3</v>
       </c>
@@ -3290,14 +3299,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,26 +3315,26 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,14 +3343,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,14 +3359,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,14 +3375,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,14 +3391,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3398,14 +3407,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="3" t="s">
         <v>3</v>
       </c>
@@ -3414,14 +3423,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,14 +3439,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="3" t="s">
         <v>3</v>
       </c>
@@ -3446,14 +3455,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="3" t="s">
         <v>3</v>
       </c>
@@ -3462,14 +3471,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,14 +3487,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,14 +3503,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,14 +3519,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,14 +3535,14 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,26 +3551,26 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3570,14 +3579,14 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3586,26 +3595,26 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,14 +3623,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="3" t="s">
         <v>3</v>
       </c>
@@ -3630,14 +3639,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,14 +3655,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,14 +3671,14 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3678,12 +3687,12 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3692,12 +3701,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="3" t="s">
         <v>4</v>
       </c>
@@ -3714,44 +3723,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="54">
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A4:H4"/>
@@ -3768,6 +3739,44 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G21 G53:G1048576">
     <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">

--- a/044-P_OO/Documentation/CDC-JournalDeTravail.xlsx
+++ b/044-P_OO/Documentation/CDC-JournalDeTravail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-GITS\covid19-WorkFromHome-ETML\044-P_OO\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6212C210-23C9-40D0-9EA7-8B223FA4A75E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F98B114-D55F-4F7D-9901-CA0030E8B95B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="630" windowWidth="24170" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2310" yWindow="6710" windowWidth="24170" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JournalDeBord" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="86">
   <si>
     <t>P_OO - Smart Thésaurus - Check List - CDC</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>Elaboration MCD, MLD et MPD. Debut des travaux sur le DAL pour le renvoit d'objet formaté vers la vue</t>
+  </si>
+  <si>
+    <t>Mise en place du stockage des données - Integration</t>
+  </si>
+  <si>
+    <t>Mise en place du stockage des données SQL Lite - Recherche et documentation</t>
   </si>
 </sst>
 </file>
@@ -784,13 +790,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2146,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,7 +2524,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>14</v>
       </c>
@@ -2529,14 +2535,20 @@
         <v>43922</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
         <v>15</v>
       </c>
@@ -2546,12 +2558,18 @@
       <c r="C18" s="18">
         <v>43929</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2823,7 +2841,7 @@
           <x14:formula1>
             <xm:f>Dicos!$F$1:$F$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E9 E15:E17</xm:sqref>
+          <xm:sqref>E3:E9 E15:E18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -2919,14 +2937,14 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,14 +2953,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2951,14 +2969,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,14 +2985,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,14 +3001,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,14 +3017,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,14 +3033,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,14 +3049,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3047,14 +3065,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,14 +3081,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,14 +3097,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,14 +3113,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -3111,14 +3129,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3127,14 +3145,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3143,14 +3161,14 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,14 +3177,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3175,14 +3193,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,14 +3221,14 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
@@ -3219,14 +3237,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
@@ -3235,14 +3253,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,14 +3269,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,14 +3285,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,14 +3301,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="3" t="s">
         <v>3</v>
       </c>
@@ -3299,14 +3317,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,14 +3345,14 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="3" t="s">
         <v>3</v>
       </c>
@@ -3343,14 +3361,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -3359,14 +3377,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -3375,14 +3393,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="3" t="s">
         <v>3</v>
       </c>
@@ -3391,14 +3409,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3407,14 +3425,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="3" t="s">
         <v>3</v>
       </c>
@@ -3423,14 +3441,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="3" t="s">
         <v>3</v>
       </c>
@@ -3439,14 +3457,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="3" t="s">
         <v>3</v>
       </c>
@@ -3455,14 +3473,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,14 +3489,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,14 +3505,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3503,14 +3521,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3519,14 +3537,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,14 +3553,14 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3563,14 +3581,14 @@
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3579,14 +3597,14 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,14 +3625,14 @@
       <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3623,14 +3641,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="3" t="s">
         <v>3</v>
       </c>
@@ -3639,14 +3657,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,14 +3673,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,14 +3689,14 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3687,12 +3705,12 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3701,12 +3719,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="3" t="s">
         <v>4</v>
       </c>
@@ -3723,6 +3741,44 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="54">
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A4:H4"/>
@@ -3739,44 +3795,6 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G21 G53:G1048576">
     <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
